--- a/blueprint-jira-better-excel/Rocket-Issues.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{A040A3A8-E13B-423A-9079-621D34E16A9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{75397255-E2D3-44B7-B38A-EC390B88BBD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,100 +442,6 @@
   </si>
   <si>
     <t>Story Points Out</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The remaining scope based on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimate in Days</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of not closed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Epics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is pessimistic because some Stories/Spikes/Tech Debts that are already closed are not taken into account.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. The remaining scope based on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Story Points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of not closed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stories/Spikes/Tech Debts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is optimistic because not all Epics are decomposed.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -588,53 +494,6 @@
     <t>* 0  for closed Epics.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Story Points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of closed Stories/Spikes/Tech Debts are deducted from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Epic Total Estimate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (another script field), which is calculated as:</t>
-    </r>
-  </si>
-  <si>
     <t>Remaining Scope based on Epics - Estimate in Days (see Notes - 1)</t>
   </si>
   <si>
@@ -647,62 +506,7 @@
     <t>Backlog Health - Stories in Ready status</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* For Epics in Ready status or further, except Done - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Story Points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of all not cancelled Stories/Spikes/Tech Debts. Here we assume that the Epic is decomposed and the cost of Stories/Spikes/Tech Debts has precedence over the cost of the Epic itself.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Stories/Spikes/Tech Debt are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Decomposed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if they are in Ready status or further.</t>
-    </r>
-  </si>
-  <si>
     <t>Bug Count</t>
-  </si>
-  <si>
-    <t>Not Closed Bugs (TechComm excluded)</t>
   </si>
   <si>
     <t>Commitment Sprint</t>
@@ -1033,6 +837,202 @@
   </si>
   <si>
     <t>DevOps: Cancelled</t>
+  </si>
+  <si>
+    <t>Not Closed Bugs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. The remaining scope based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Story Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of not closed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stories/Spikes/Tech Debts/DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is optimistic because not all Epics are decomposed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The remaining scope based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimate in Days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of not closed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Epics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is pessimistic because some Stories/Spikes/Tech Debts/DevOps that are already closed are not taken into account.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Story Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of closed Stories/Spikes/Tech Debts/DevOps are deducted from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Epic Total Estimate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (another script field), which is calculated as:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* For Epics in Ready status or further, except Done - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Story Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of all not cancelled Stories/Spikes/Tech Debts. Here we assume that the Epic is decomposed and the cost of Stories/Spikes/Tech Debts/DevOps has precedence over the cost of the Epic itself.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Stories/Spikes/Tech Debt/DevOps are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decomposed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if they are in Ready status or further.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43392.402842592594" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43392.411801736111" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -4174,731 +4174,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G41:H45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:E28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="D5:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="3" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:B18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -5106,7 +4381,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="J5:L10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="41">
@@ -5276,6 +4551,731 @@
   <dataFields count="2">
     <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G41:H45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A24:E28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A41:B45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="D5:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="41">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="3" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5797,52 +5797,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5865,17 +5865,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -5891,7 +5891,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -5921,7 +5921,7 @@
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
@@ -5939,18 +5939,18 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="21"/>
       <c r="D1" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="J1" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -5958,22 +5958,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -6050,10 +6050,10 @@
       </c>
       <c r="E8" s="20"/>
       <c r="J8" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -6068,7 +6068,7 @@
         <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -6098,10 +6098,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E12" s="20"/>
     </row>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -6170,18 +6170,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -6205,15 +6205,15 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B27" s="20">
         <v>1</v>
@@ -6259,16 +6259,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -6315,11 +6315,11 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B43" s="20"/>
       <c r="G43" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H43" s="20"/>
     </row>
@@ -6380,7 +6380,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6388,10 +6388,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6552,25 +6552,25 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>43</v>
@@ -6585,16 +6585,16 @@
         <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
@@ -6671,25 +6671,25 @@
         <v>42</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Z2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="AD2" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>46</v>
@@ -6704,13 +6704,13 @@
         <v>125</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AK2" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>11</v>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>58</v>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="AJ4" s="4"/>
       <c r="AL4" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.45">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AH5" s="4" t="s">
         <v>56</v>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="AJ5" s="4"/>
       <c r="AL5" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.45">
@@ -6812,17 +6812,17 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AJ6" s="4"/>
       <c r="AL6" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.45">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="AJ7" s="4"/>
       <c r="AL7" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.45">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AJ8" s="4"/>
       <c r="AL8" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="AJ9" s="4"/>
       <c r="AL9" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -7045,7 +7045,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>107</v>
@@ -7304,7 +7304,7 @@
         <v>53</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AH48" s="4"/>
     </row>
@@ -7313,7 +7313,7 @@
         <v>53</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AH49" s="4"/>
     </row>
@@ -7322,7 +7322,7 @@
         <v>53</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH50" s="4"/>
     </row>
@@ -7331,7 +7331,7 @@
         <v>53</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AH51" s="4"/>
     </row>
@@ -7340,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AH52" s="4"/>
     </row>
@@ -7349,7 +7349,7 @@
         <v>53</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AH53" s="4"/>
     </row>
@@ -7358,7 +7358,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AH54" s="4"/>
     </row>
@@ -7367,7 +7367,7 @@
         <v>53</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AH55" s="4"/>
     </row>
@@ -7376,7 +7376,7 @@
         <v>53</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AH56" s="4"/>
     </row>
@@ -7385,7 +7385,7 @@
         <v>53</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AH57" s="4"/>
     </row>
@@ -7394,7 +7394,7 @@
         <v>53</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -7402,7 +7402,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.45">
@@ -7410,7 +7410,7 @@
         <v>53</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AL60" s="5" t="s">
         <v>129</v>

--- a/blueprint-jira-better-excel/Rocket-Issues.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{75397255-E2D3-44B7-B38A-EC390B88BBD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{93A4DB23-E821-4C9F-AA59-5E4C8B4D730B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,18 @@
     <sheet name="Issues" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$9999),COUNTA(Issues!$A$1:$AAI$1)-1)</definedName>
+    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$9999),COUNTA(Issues!$A$1:$AAJ$1)-1)</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="197">
   <si>
     <t>Status</t>
   </si>
@@ -628,12 +628,6 @@
     <t>Quasar</t>
   </si>
   <si>
-    <t>$[K8 + IFERROR(GETPIVOTDATA("Different Story Points", $A$41, "Team Grouped", J8), 0) - IFERROR(GETPIVOTDATA("Different Story Points", $G$41, "Epic Team Grouped", J8), 0)]</t>
-  </si>
-  <si>
-    <t>$[K9 + IFERROR(GETPIVOTDATA("Different Story Points", $A$41, "Team Grouped", J9), 0) - IFERROR(GETPIVOTDATA("Different Story Points", $G$41, "Epic Team Grouped", J9), 0)]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">5. </t>
     </r>
@@ -1033,6 +1027,18 @@
       </rPr>
       <t xml:space="preserve"> if they are in Ready status or further.</t>
     </r>
+  </si>
+  <si>
+    <t>Not DevOps</t>
+  </si>
+  <si>
+    <t>$[IF(K2="DevOps","", "Yes")]</t>
+  </si>
+  <si>
+    <t>$[K10 + IFERROR(GETPIVOTDATA("Different Story Points", $A$43, "Team Grouped", J10), 0) - IFERROR(GETPIVOTDATA("Different Story Points", $G$43, "Epic Team Grouped", J10), 0)]</t>
+  </si>
+  <si>
+    <t>$[K11 + IFERROR(GETPIVOTDATA("Different Story Points", $A$43, "Team Grouped", J11), 0) - IFERROR(GETPIVOTDATA("Different Story Points", $G$43, "Epic Team Grouped", J11), 0)]</t>
   </si>
 </sst>
 </file>
@@ -1328,11 +1334,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43392.411801736111" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43424.587373032409" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
-  <cacheFields count="41">
+  <cacheFields count="42">
     <cacheField name="Key" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -1563,6 +1569,13 @@
     <cacheField name="Different Story Points" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Not DevOps" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="$[IF(K2=&quot;DevOps&quot;,&quot;&quot;, &quot;Yes&quot;)]"/>
+        <m/>
+        <s v="Yes"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Backlog Health" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
         <s v="${bpHelper.isInBacklogHealth(issue)}&lt;/jt:forEach&gt;"/>
@@ -1624,6 +1637,7 @@
     <s v="$[IF(B2=&quot;Epic&quot;, IF(AND(IFERROR(VALUE(P2), 0)&gt;0, P2=W2), &quot;Yes&quot;, &quot;No&quot;), &quot;&quot;)]"/>
     <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues.subList(0, 0)}&quot; var=&quot;issue&quot; where=&quot;${issue.key = ''}&quot;&gt;"/>
@@ -1663,6 +1677,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -1703,6 +1718,7 @@
     <x v="2"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1743,6 +1759,7 @@
     <x v="3"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1784,6 +1801,7 @@
     <m/>
     <m/>
     <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
@@ -1823,6 +1841,7 @@
     <x v="5"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -1864,365 +1883,334 @@
     <m/>
     <m/>
     <x v="2"/>
-  </r>
-  <r>
-    <s v="key"/>
-    <x v="1"/>
-    <m/>
-    <x v="7"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Unassigned"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <x v="7"/>
-    <m/>
-    <m/>
     <x v="2"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="TechComm"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Unassigned"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="9"/>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="QA"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="9"/>
-    <m/>
-    <m/>
+    <x v="8"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="TechComm"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="10"/>
-    <x v="10"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="DevOps"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="10"/>
-    <m/>
-    <m/>
+    <x v="9"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="QA"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="11"/>
-    <x v="11"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Evolution"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="11"/>
-    <x v="11"/>
-    <m/>
-    <m/>
+    <x v="10"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="DevOps"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="10"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="12"/>
-    <x v="12"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="No Pasaran"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="11"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Evolution"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="11"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="13"/>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Status200"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="12"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="No Pasaran"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="14"/>
-    <x v="14"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="13"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Status200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
     <x v="1"/>
     <m/>
-    <x v="1"/>
-    <x v="15"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="14"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2230,39 +2218,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="16"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="15"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2270,39 +2259,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="17"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2310,39 +2300,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2350,39 +2341,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="19"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2390,39 +2382,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="20"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2430,39 +2423,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="21"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2470,39 +2464,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="22"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2510,39 +2505,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2550,39 +2546,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="24"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2590,39 +2587,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="25"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="24"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2630,39 +2628,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="26"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="25"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2670,39 +2669,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="27"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="26"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2710,39 +2710,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="27"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2750,39 +2751,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="28"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2790,39 +2792,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="30"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="29"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2830,39 +2833,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="31"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2870,39 +2874,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="32"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="31"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2910,39 +2915,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="33"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="32"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2950,39 +2956,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="34"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="33"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -2990,39 +2997,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="35"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="34"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3030,39 +3038,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="36"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="35"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3070,39 +3079,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="37"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3110,39 +3120,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="38"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="37"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3150,39 +3161,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="39"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="38"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3190,39 +3202,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="40"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="39"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3230,39 +3243,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="41"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="40"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3270,39 +3284,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="42"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3310,39 +3325,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="43"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3350,39 +3366,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="44"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="43"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3390,39 +3407,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="45"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="44"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3430,39 +3448,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="46"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="45"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3470,39 +3489,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="47"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="46"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3510,39 +3530,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="48"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="47"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3550,39 +3571,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="49"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="48"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3590,39 +3612,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="49"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3630,39 +3653,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="51"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="50"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3670,39 +3694,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="51"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3710,39 +3735,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="53"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3750,39 +3776,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="54"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="53"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3790,39 +3817,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="55"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="54"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3830,39 +3858,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="56"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="55"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3870,39 +3899,40 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
-    <x v="57"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="56"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="1"/>
   </r>
   <r>
@@ -3910,6 +3940,47 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <x v="57"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
     <x v="58"/>
     <m/>
     <m/>
@@ -3943,6 +4014,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
     <x v="3"/>
   </r>
   <r>
@@ -3983,15 +4055,16 @@
     <x v="1"/>
     <m/>
     <m/>
+    <x v="1"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A5:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
+  <pivotFields count="42">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
@@ -4129,6 +4202,7 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -4174,9 +4248,962 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A5:B18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="J6:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G43:H47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A26:E30" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="38" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A43:B47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="D6:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A6:B19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -4313,6 +5340,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -4362,9 +5397,10 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="30" hier="-1"/>
     <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Estimate in Days" fld="12" baseField="3" baseItem="4"/>
@@ -4381,918 +5417,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="J5:L10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G41:H45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A24:E28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A41:B45" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="D5:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="3" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
-  <location ref="A5:C8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="41">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
+  <location ref="A6:C9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
       <items count="8">
@@ -5375,6 +5503,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -5392,18 +5528,19 @@
     <field x="1"/>
     <field x="-2"/>
   </colFields>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="30" hier="-1"/>
     <pageField fld="3" hier="-1"/>
+    <pageField fld="37" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="7">
     <dataField name="Total Estimate" fld="15" baseField="10" baseItem="1"/>
     <dataField name="Story Estimate_x000a_(incl. Tech Debt &amp; Spikes)" fld="14" baseField="10" baseItem="1"/>
     <dataField name="Decomposed _x000a_(Ready, In Dev, Closed)" fld="22" baseField="10" baseItem="1"/>
     <dataField name="Remaining Estimate_x000a_(Not Closed/ Not Decomposed)" fld="16" baseField="10" baseItem="1"/>
-    <dataField name="Epic Decomposition Progress" fld="40" baseField="10" baseItem="0" numFmtId="9"/>
-    <dataField name="Story Decomposition Progress" fld="39" subtotal="count" baseField="10" baseItem="0"/>
-    <dataField name="Development Progress" fld="38" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
+    <dataField name="Epic Decomposition Progress" fld="41" baseField="10" baseItem="0" numFmtId="9"/>
+    <dataField name="Story Decomposition Progress" fld="40" subtotal="count" baseField="10" baseItem="0"/>
+    <dataField name="Development Progress" fld="39" subtotal="count" baseField="10" baseItem="1" numFmtId="9"/>
   </dataFields>
   <formats count="5">
     <format dxfId="9">
@@ -5797,12 +5934,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -5817,7 +5954,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
@@ -5827,22 +5964,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5865,7 +6004,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5875,7 +6014,7 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -5911,17 +6050,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
@@ -5961,19 +6100,19 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -5996,354 +6135,396 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="22"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="J7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>131</v>
-      </c>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="J8" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" t="s">
-        <v>162</v>
+      <c r="J8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E9" s="20"/>
       <c r="J9" s="17" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="20"/>
       <c r="J10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="24">
-        <f>SUM(M8:M9)</f>
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="20"/>
+      <c r="J11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="24">
+        <f>SUM(M9:M10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="E19" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
         <v>167</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="20">
+      <c r="B29" s="20">
         <v>1</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C29" s="20">
         <v>10</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E29" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B30" s="20">
         <v>1</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C30" s="20">
         <v>10</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D30" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E30" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="G37" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="G38" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" t="s">
-        <v>169</v>
-      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G40" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H43" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="16" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="G43" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="G44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="G45" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="G46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B47" s="20">
         <v>0</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H47" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6360,10 +6541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6380,7 +6561,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -6391,7 +6572,7 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6402,18 +6583,26 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6429,12 +6618,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AM56" sqref="AM55:AM56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6474,11 +6663,12 @@
     <col min="35" max="35" width="18.86328125" style="5" customWidth="1"/>
     <col min="36" max="36" width="19.86328125" style="5" customWidth="1"/>
     <col min="37" max="37" width="18.796875" style="5" customWidth="1"/>
-    <col min="38" max="38" width="17.53125" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="9.1328125" style="3"/>
+    <col min="38" max="38" width="15.265625" style="5" customWidth="1"/>
+    <col min="39" max="39" width="17.53125" style="5" customWidth="1"/>
+    <col min="40" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6591,13 +6781,16 @@
         <v>48</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -6707,21 +6900,24 @@
         <v>147</v>
       </c>
       <c r="AK2" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -6749,10 +6945,13 @@
       </c>
       <c r="AJ4" s="4"/>
       <c r="AL4" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -6785,10 +6984,13 @@
       </c>
       <c r="AJ5" s="4"/>
       <c r="AL5" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -6812,20 +7014,23 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AJ6" s="4"/>
       <c r="AL6" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -6853,10 +7058,13 @@
       </c>
       <c r="AJ7" s="4"/>
       <c r="AL7" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -6881,10 +7089,13 @@
       </c>
       <c r="AJ8" s="4"/>
       <c r="AL8" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -6907,10 +7118,13 @@
       </c>
       <c r="AJ9" s="4"/>
       <c r="AL9" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -6932,8 +7146,11 @@
         <v>62</v>
       </c>
       <c r="AJ10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AL10" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -6955,8 +7172,11 @@
         <v>55</v>
       </c>
       <c r="AJ11" s="4"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AL11" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -6978,8 +7198,11 @@
         <v>63</v>
       </c>
       <c r="AJ12" s="4"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AL12" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -7001,8 +7224,11 @@
         <v>59</v>
       </c>
       <c r="AJ13" s="4"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AL13" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -7020,8 +7246,11 @@
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
-    </row>
-    <row r="15" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL14" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -7039,384 +7268,519 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="AL15" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL16" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL17" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+      <c r="AL18" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL19" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL20" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL21" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL22" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL23" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL24" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL25" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL26" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL27" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL28" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL29" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="AL30" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="39.4" x14ac:dyDescent="0.45">
+      <c r="AL31" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL33" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL34" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL35" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL36" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL37" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL38" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL39" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL40" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL41" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL42" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL43" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL44" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL45" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL46" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AL47" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AH48" s="4"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AL48" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AH49" s="4"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AL49" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AH50" s="4"/>
-    </row>
-    <row r="51" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL50" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH51" s="4"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AL51" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL52" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AL53" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AH54" s="4"/>
-    </row>
-    <row r="55" spans="1:38" ht="39.4" x14ac:dyDescent="0.45">
+      <c r="AL54" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH55" s="4"/>
-    </row>
-    <row r="56" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL55" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL56" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="AL57" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+      <c r="AL58" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+      <c r="AL59" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM60" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A61" s="31" t="s">
         <v>53</v>
       </c>

--- a/blueprint-jira-better-excel/Rocket-Issues.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{93A4DB23-E821-4C9F-AA59-5E4C8B4D730B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{9AEFB084-295D-463D-8D0E-4FDEB087A43E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" tabRatio="688" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="198">
   <si>
     <t>Status</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t>$[K11 + IFERROR(GETPIVOTDATA("Different Story Points", $A$43, "Team Grouped", J11), 0) - IFERROR(GETPIVOTDATA("Different Story Points", $G$43, "Epic Team Grouped", J11), 0)]</t>
+  </si>
+  <si>
+    <t>Saturn</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43424.587373032409" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43480.351890972219" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60" xr:uid="{00000000-000A-0000-FFFF-FFFF13000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -1517,12 +1520,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Pegasus"/>
         <s v="Quasar"/>
         <s v="Rocket"/>
+        <s v="Saturn"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -1834,7 +1838,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="5"/>
     <m/>
     <m/>
     <x v="5"/>
@@ -4170,12 +4174,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
+      <items count="7">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
         <item x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4248,200 +4253,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="J6:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="42">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <pageFields count="3">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="G43:H47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="D6:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="42">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
@@ -4530,16 +4343,16 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4548,551 +4361,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
+      <items count="7">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
         <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" sortType="ascending"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
         <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A26:E30" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="42">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="38" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
-    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="A43:B47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="42">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
-      <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item x="4"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="30" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="37" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000003000000}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
-  <location ref="D6:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="42">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item h="1" x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item h="1" x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item h="1" x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item h="1" x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item h="1" x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5200,7 +4475,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
   <location ref="A6:B19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="42">
@@ -5309,12 +4584,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
+      <items count="7">
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
         <item x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5417,6 +4693,751 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="J6:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="3" baseItem="4"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="3" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="G43:H47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" sortType="ascending"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A26:G31" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="38" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count" fld="13" subtotal="count" baseField="26" baseItem="0"/>
+    <dataField name="SPs" fld="13" baseField="26" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Team">
+  <location ref="A43:B47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="42">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item h="1" x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item h="1" x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item h="1" x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item h="1" x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item h="1" x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" sortType="ascending">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="10"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="4"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="30" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="37" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Different Story Points" fld="36" baseField="26" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Component">
   <location ref="A6:C9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
@@ -5488,12 +5509,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
+      <items count="7">
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6052,19 +6074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -6291,7 +6313,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
         <v>61</v>
       </c>
@@ -6300,7 +6322,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>120</v>
       </c>
@@ -6309,7 +6331,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -6318,7 +6340,7 @@
       </c>
       <c r="E19" s="20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
         <v>142</v>
       </c>
@@ -6327,15 +6349,15 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>165</v>
       </c>
@@ -6343,7 +6365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>193</v>
       </c>
@@ -6351,23 +6373,26 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>45</v>
       </c>
@@ -6377,8 +6402,14 @@
       <c r="C28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>172</v>
       </c>
@@ -6389,27 +6420,62 @@
         <v>10</v>
       </c>
       <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="20">
+      <c r="G29" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" s="20">
         <v>1</v>
       </c>
       <c r="E30" s="20">
+        <v>20</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20">
         <v>10</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20">
+        <v>20</v>
+      </c>
+      <c r="F31" s="20">
+        <v>2</v>
+      </c>
+      <c r="G31" s="20">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -6623,7 +6689,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="AM56" sqref="AM55:AM56"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7050,6 +7116,9 @@
         <v>54</v>
       </c>
       <c r="W7" s="4"/>
+      <c r="AE7" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="AH7" s="4" t="s">
         <v>54</v>
       </c>
